--- a/Data/Daten.xlsx
+++ b/Data/Daten.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\github\.git\objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\github\IMChallenge\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12945" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="14">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="14">
         <v>6</v>
@@ -2188,6 +2188,34 @@
       </c>
       <c r="E43">
         <v>60</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="array" ref="G43:O43">TRANSPOSE(R1:R9)</f>
+        <v>S_j</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>15</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -11512,7 +11540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -12698,7 +12726,7 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Data/Daten.xlsx
+++ b/Data/Daten.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\github\.git\objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\github\IMChallenge\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12945" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="14">
         <v>5</v>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="14">
         <v>6</v>
@@ -11512,7 +11512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -12698,7 +12698,7 @@
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
